--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Sunny</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +496,168 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>45994.33344841435</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>45995.33342951389</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>45996.33342646991</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>45997.33345454861</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>45998.33342789352</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>45999.33342905092</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>46000.33342068287</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -46,7 +46,10 @@
     <t>Cloudy</t>
   </si>
   <si>
-    <t>Mostly Sunny</t>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -450,69 +453,75 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>57</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>57</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -522,123 +531,137 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -646,16 +669,20 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="2">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>60</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -46,10 +46,7 @@
     <t>Cloudy</t>
   </si>
   <si>
-    <t>Windy</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
+    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -453,75 +450,69 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45992.33341655093</v>
+        <v>45992.33342291666</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45993.33341288195</v>
+        <v>45993.33341936343</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45994.33343938657</v>
+        <v>45994.33344841435</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
-        <v>57</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -531,137 +522,123 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45995.33342202546</v>
+        <v>45995.33342951389</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45996.33342037037</v>
+        <v>45996.33342646991</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45997.33344641203</v>
+        <v>45997.33345454861</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45998.33342133102</v>
+        <v>45998.33342789352</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45999.33342280093</v>
+        <v>45999.33342905092</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>46000.33341339121</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -669,20 +646,16 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,6 +658,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>46001.33341871528</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -46,7 +46,10 @@
     <t>Cloudy</t>
   </si>
   <si>
-    <t>Mostly Sunny</t>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -450,69 +453,75 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>57</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>57</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -522,123 +531,137 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -646,21 +669,25 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="2">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>60</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -668,16 +695,20 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
       <c r="E11" s="2">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>60</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -46,7 +46,10 @@
     <t>Cloudy</t>
   </si>
   <si>
-    <t>Mostly Sunny</t>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -450,69 +453,75 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>57</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>57</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -522,123 +531,137 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -646,21 +669,25 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="2">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>60</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -668,21 +695,25 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
       <c r="E11" s="2">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>60</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>46002.33342994213</v>
+        <v>46002.33342167824</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -690,16 +721,20 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="2">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="2">
+        <v>60</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -46,10 +46,7 @@
     <t>Cloudy</t>
   </si>
   <si>
-    <t>Windy</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
+    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,75 +450,69 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45992.33341655093</v>
+        <v>45992.33342291666</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45993.33341288195</v>
+        <v>45993.33341936343</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45994.33343938657</v>
+        <v>45994.33344841435</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
-        <v>57</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -531,137 +522,123 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45995.33342202546</v>
+        <v>45995.33342951389</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45996.33342037037</v>
+        <v>45996.33342646991</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45997.33344641203</v>
+        <v>45997.33345454861</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45998.33342133102</v>
+        <v>45998.33342789352</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45999.33342280093</v>
+        <v>45999.33342905092</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>46000.33341339121</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -669,25 +646,21 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>46001.33341168981</v>
+        <v>46001.33341871528</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -695,25 +668,21 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>46002.33342167824</v>
+        <v>46002.33342994213</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -721,20 +690,84 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="2">
-        <v>43</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>46003.33343831018</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>46004.33342488426</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>46005.3334372338</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Weather.xlsx
+++ b/reports/Month to Date (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
   <si>
     <t>Mostly Sunny</t>
@@ -450,69 +456,75 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>57</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>57</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -522,123 +534,137 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -646,21 +672,25 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="2">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>60</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -668,21 +698,25 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
       <c r="E11" s="2">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>60</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>46002.33342994213</v>
+        <v>46002.33342167824</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -690,21 +724,25 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="2">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="2">
+        <v>60</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>46003.33343831018</v>
+        <v>46003.33343202547</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -712,21 +750,25 @@
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
       <c r="E13" s="2">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="2">
+        <v>60</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>46004.33342488426</v>
+        <v>46004.33341840278</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -734,21 +776,25 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
       <c r="E14" s="2">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="2">
+        <v>60</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>46005.3334372338</v>
+        <v>46005.33343055555</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -760,14 +806,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F15" s="2">
+        <v>60</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
